--- a/KNOWHOW서버 배포일지.xlsx
+++ b/KNOWHOW서버 배포일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwe06\PycharmProjects\AI-Cost-Management-and-Prediction-Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42AFB6B-1A51-4368-A887-D5971308E52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623A675-DEAF-44B4-BBDC-37F9E3A8A31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
+    <workbookView xWindow="492" yWindow="1248" windowWidth="13728" windowHeight="10824" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="KNOWHOW작업일지" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>깃에 올라가지 않는 파일 변경 시 우측칸에 별도표시.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.01.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버배포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585DCABE-CA6E-44C1-9F13-782D6FC183BC}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -621,8 +633,15 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">

--- a/KNOWHOW서버 배포일지.xlsx
+++ b/KNOWHOW서버 배포일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qwe06\PycharmProjects\AI-Cost-Management-and-Prediction-Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyhpy\PycharmProjects\AI-Cost-Management-and-Prediction-Platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623A675-DEAF-44B4-BBDC-37F9E3A8A31F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512A420-5113-4572-B1D1-1DF325F6FF94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="1248" windowWidth="13728" windowHeight="10824" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9301E536-AFC3-47DC-BE16-71CC29477EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="KNOWHOW작업일지" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>서버배포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.04.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영훈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,21 +564,21 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.296875" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.19921875" customWidth="1"/>
-    <col min="8" max="8" width="41.59765625" customWidth="1"/>
-    <col min="9" max="9" width="25.09765625" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="6.25" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.25" customWidth="1"/>
+    <col min="8" max="8" width="41.625" customWidth="1"/>
+    <col min="9" max="9" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -582,16 +590,16 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
@@ -600,13 +608,13 @@
       <c r="H4" s="9"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -620,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +640,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
@@ -644,47 +652,55 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="G11" s="1"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
